--- a/src/assets/data/mining_outcrop.xlsx
+++ b/src/assets/data/mining_outcrop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin-Impact/src/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{CB502A29-9664-4255-A23D-3F27DD3B7658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E2AB71-5E6A-49FF-B451-6F41660E1A91}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{CB502A29-9664-4255-A23D-3F27DD3B7658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3498209-0401-4D67-B8B6-52306A7F98BC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_nation-template" sheetId="1" state="hidden" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="470">
   <si>
     <t>Wealth</t>
   </si>
@@ -1407,6 +1407,66 @@
   </si>
   <si>
     <t>2, 5, 6, 10, 13</t>
+  </si>
+  <si>
+    <t>4, 5, 11</t>
+  </si>
+  <si>
+    <t>2, 4, 7, 10, 13</t>
+  </si>
+  <si>
+    <t>23, 25, 19</t>
+  </si>
+  <si>
+    <t>2, 4, 6, 19</t>
+  </si>
+  <si>
+    <t>7, 8, 11</t>
+  </si>
+  <si>
+    <t>15, 19, 21, 23, 24</t>
+  </si>
+  <si>
+    <t>18, 16, 22</t>
+  </si>
+  <si>
+    <t>6, 3</t>
+  </si>
+  <si>
+    <t>1, 3, 7, 19</t>
+  </si>
+  <si>
+    <t>1, 6, 7, 9</t>
+  </si>
+  <si>
+    <t>1, 4, 6, 8, 13</t>
+  </si>
+  <si>
+    <t>19, 22, 23, 25</t>
+  </si>
+  <si>
+    <t>24, 21, 20</t>
+  </si>
+  <si>
+    <t>13, 16, 17</t>
+  </si>
+  <si>
+    <t>14, 15, 19</t>
+  </si>
+  <si>
+    <t>1, 3, 7, 10, 13</t>
+  </si>
+  <si>
+    <t>13, 16, 17, 18</t>
+  </si>
+  <si>
+    <t>14, 15</t>
+  </si>
+  <si>
+    <t>19, 22</t>
+  </si>
+  <si>
+    <t>29, 28, 30, 26</t>
   </si>
 </sst>
 </file>
@@ -2189,193 +2249,193 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <f ca="1">TODAY()</f>
-        <v>45475</v>
+        <v>45479</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f ca="1">1+A2</f>
-        <v>45476</v>
+        <v>45480</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <f t="shared" ref="A4:A33" ca="1" si="0">1+A3</f>
-        <v>45477</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45478</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45479</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45480</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45482</v>
+        <v>45486</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45483</v>
+        <v>45487</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45484</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45485</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45490</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45487</v>
+        <v>45491</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45488</v>
+        <v>45492</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45489</v>
+        <v>45493</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45494</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45491</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45492</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45493</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45494</v>
+        <v>45498</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45496</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45497</v>
+        <v>45501</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45498</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45499</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45500</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45501</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45502</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45503</v>
+        <v>45507</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45504</v>
+        <v>45508</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45505</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45506</v>
+        <v>45510</v>
       </c>
     </row>
   </sheetData>
@@ -2451,193 +2511,193 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <f ca="1">TODAY()</f>
-        <v>45475</v>
+        <v>45479</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f ca="1">1+A2</f>
-        <v>45476</v>
+        <v>45480</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <f t="shared" ref="A4:A33" ca="1" si="0">1+A3</f>
-        <v>45477</v>
+        <v>45481</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45478</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45479</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45480</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45481</v>
+        <v>45485</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45482</v>
+        <v>45486</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45483</v>
+        <v>45487</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45484</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45485</v>
+        <v>45489</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45490</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45487</v>
+        <v>45491</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45488</v>
+        <v>45492</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45489</v>
+        <v>45493</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45494</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45491</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45492</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45493</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45494</v>
+        <v>45498</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45495</v>
+        <v>45499</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45496</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45497</v>
+        <v>45501</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45498</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45499</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45500</v>
+        <v>45504</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45501</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45502</v>
+        <v>45506</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45503</v>
+        <v>45507</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45504</v>
+        <v>45508</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45505</v>
+        <v>45509</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>45506</v>
+        <v>45510</v>
       </c>
     </row>
   </sheetData>
@@ -4440,7 +4500,7 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
@@ -5638,11 +5698,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE47325-3414-4FA0-88F5-D4488CA67E0B}">
   <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5683,7 +5743,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>45439</v>
+        <v>45427</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>162</v>
@@ -5693,19 +5753,19 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>127</v>
+      <c r="H2" s="14">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>45443</v>
+        <v>45435</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>162</v>
@@ -5715,17 +5775,19 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="H3" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>45427</v>
+        <v>45439</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>162</v>
@@ -5735,19 +5797,19 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="14">
-        <v>9</v>
+      <c r="H4" s="14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
-        <v>45464</v>
+        <v>45443</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>162</v>
@@ -5755,21 +5817,19 @@
       <c r="C5" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>45474</v>
+        <v>45449</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>162</v>
@@ -5777,17 +5837,17 @@
       <c r="C6" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="14" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -5813,7 +5873,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>45449</v>
+        <v>45464</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>162</v>
@@ -5821,21 +5881,21 @@
       <c r="C8" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="E8" s="14" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>316</v>
-      </c>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
-        <v>45435</v>
+        <v>45469</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>162</v>
@@ -5845,19 +5905,17 @@
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>127</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>45469</v>
+        <v>45474</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>162</v>
@@ -5865,39 +5923,41 @@
       <c r="C10" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="E10" s="14" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
-        <v>45461</v>
+        <v>45478</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>167</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>45457</v>
+        <v>45421</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>166</v>
@@ -5907,63 +5967,61 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>439</v>
+        <v>19</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>316</v>
+      <c r="H12" s="14">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
-        <v>45421</v>
-      </c>
-      <c r="B13" s="14" t="s">
+        <v>45424</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="18" t="s">
         <v>167</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="14">
-        <v>10</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>45451</v>
-      </c>
-      <c r="B14" s="14" t="s">
+        <v>45426</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="E14" s="14" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
-        <v>45465</v>
+        <v>45428</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>166</v>
@@ -5973,19 +6031,19 @@
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
         <v>82</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>344</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>45468</v>
+        <v>45431</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>166</v>
@@ -5995,19 +6053,19 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>426</v>
+        <v>112</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>316</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
-        <v>45454</v>
+        <v>45433</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>166</v>
@@ -6015,17 +6073,17 @@
       <c r="C17" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="E17" s="14" t="s">
-        <v>438</v>
+        <v>81</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>344</v>
-      </c>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
@@ -6051,7 +6109,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
-        <v>45472</v>
+        <v>45444</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>166</v>
@@ -6061,7 +6119,7 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
@@ -6071,7 +6129,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <v>45463</v>
+        <v>45445</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>166</v>
@@ -6081,7 +6139,7 @@
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
@@ -6091,7 +6149,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
-        <v>45444</v>
+        <v>45450</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>166</v>
@@ -6105,13 +6163,15 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H21" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <v>45450</v>
+        <v>45451</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>166</v>
@@ -6121,61 +6181,63 @@
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14" t="s">
         <v>82</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>344</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
-        <v>45426</v>
-      </c>
-      <c r="B23" s="18" t="s">
+        <v>45454</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>52</v>
+        <v>438</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
-        <v>45424</v>
-      </c>
-      <c r="B24" s="18" t="s">
+        <v>45457</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="14" t="s">
         <v>167</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14" t="s">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="H24" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
-        <v>45466</v>
+        <v>45461</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>166</v>
@@ -6185,17 +6247,17 @@
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
-        <v>45433</v>
+        <v>45463</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>166</v>
@@ -6203,21 +6265,19 @@
       <c r="C26" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14" t="s">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
-        <v>45445</v>
+        <v>45465</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>166</v>
@@ -6227,17 +6287,19 @@
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H27" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
-        <v>45428</v>
+        <v>45466</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>166</v>
@@ -6247,19 +6309,17 @@
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>127</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
-        <v>45431</v>
+        <v>45468</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>166</v>
@@ -6269,19 +6329,19 @@
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14" t="s">
-        <v>112</v>
+        <v>426</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14" t="s">
         <v>82</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
-        <v>45475</v>
+        <v>45472</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>166</v>
@@ -6291,57 +6351,57 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>426</v>
+        <v>106</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
-        <v>45455</v>
+        <v>45475</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>322</v>
+        <v>166</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="14"/>
+        <v>426</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14" t="s">
+        <v>304</v>
+      </c>
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
-        <v>45430</v>
+        <v>45477</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>322</v>
+        <v>166</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="14"/>
+        <v>454</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
+        <v>281</v>
+      </c>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
-        <v>45473</v>
+        <v>45430</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>322</v>
@@ -6351,7 +6411,7 @@
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>118</v>
@@ -6361,13 +6421,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
-        <v>45447</v>
+        <v>45455</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>322</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>165</v>
+        <v>274</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
@@ -6381,13 +6441,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
-        <v>45470</v>
+        <v>45473</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>322</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>165</v>
+        <v>274</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
@@ -6401,67 +6461,67 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
-        <v>45458</v>
+        <v>45447</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>389</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="F36" s="14"/>
+        <v>330</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
-        <v>45462</v>
+        <v>45470</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>46</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="F37" s="14"/>
+        <v>421</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
-        <v>45467</v>
+        <v>45476</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>423</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="F38" s="14"/>
+        <v>450</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
-        <v>45441</v>
+        <v>45420</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>161</v>
@@ -6470,10 +6530,10 @@
         <v>322</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>285</v>
+        <v>22</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -6481,7 +6541,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
-        <v>45420</v>
+        <v>45423</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>161</v>
@@ -6490,10 +6550,10 @@
         <v>322</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -6501,7 +6561,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
-        <v>45456</v>
+        <v>45425</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>161</v>
@@ -6510,10 +6570,10 @@
         <v>322</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>376</v>
+        <v>5</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>375</v>
+        <v>46</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -6541,7 +6601,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
-        <v>45448</v>
+        <v>45438</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>161</v>
@@ -6550,10 +6610,10 @@
         <v>322</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
@@ -6561,7 +6621,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
-        <v>45453</v>
+        <v>45441</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>161</v>
@@ -6570,10 +6630,10 @@
         <v>322</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
@@ -6581,7 +6641,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
-        <v>45438</v>
+        <v>45448</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>161</v>
@@ -6590,10 +6650,10 @@
         <v>322</v>
       </c>
       <c r="D45" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="14" t="s">
         <v>232</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>231</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
@@ -6601,7 +6661,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
-        <v>45471</v>
+        <v>45453</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>161</v>
@@ -6610,10 +6670,10 @@
         <v>322</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>433</v>
+        <v>232</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
@@ -6621,7 +6681,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
-        <v>45423</v>
+        <v>45456</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>161</v>
@@ -6630,10 +6690,10 @@
         <v>322</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>32</v>
+        <v>376</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>31</v>
+        <v>375</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -6641,7 +6701,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
-        <v>45425</v>
+        <v>45458</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>161</v>
@@ -6650,10 +6710,10 @@
         <v>322</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>5</v>
+        <v>389</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
@@ -6661,105 +6721,97 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
-        <v>45422</v>
+        <v>45462</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="14"/>
+        <v>322</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E49" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F49" s="14">
-        <v>3</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>82</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
       <c r="H49" s="14"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="14"/>
+        <v>322</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>423</v>
+      </c>
       <c r="E50" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="14">
-        <v>3</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>82</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
       <c r="H50" s="14"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
-        <v>45429</v>
+        <v>45471</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D51" s="14"/>
+        <v>322</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="E51" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F51" s="14">
-        <v>3</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>82</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="14"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
-        <v>45446</v>
+        <v>45479</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D52" s="14"/>
+        <v>322</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>464</v>
+      </c>
       <c r="E52" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>82</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
-        <v>45432</v>
+        <v>45422</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>274</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14" t="s">
-        <v>275</v>
+        <v>25</v>
       </c>
       <c r="F53" s="14">
         <v>3</v>
@@ -6771,20 +6823,20 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
-        <v>45452</v>
+        <v>45460</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>274</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>147</v>
+        <v>25</v>
+      </c>
+      <c r="F54" s="14">
+        <v>3</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>82</v>
@@ -6793,7 +6845,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
-        <v>45434</v>
+        <v>45429</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>165</v>
@@ -6803,7 +6855,7 @@
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="F55" s="14">
         <v>3</v>
@@ -6815,7 +6867,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
-        <v>45437</v>
+        <v>45432</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>165</v>
@@ -6825,10 +6877,10 @@
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>147</v>
+        <v>275</v>
+      </c>
+      <c r="F56" s="14">
+        <v>3</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>82</v>
@@ -6837,73 +6889,113 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
-        <v>45442</v>
+        <v>45434</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F57" s="14"/>
+        <v>52</v>
+      </c>
+      <c r="F57" s="14">
+        <v>3</v>
+      </c>
       <c r="G57" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>127</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
-        <v>45476</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+        <v>45437</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>274</v>
+      </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="E58" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="H58" s="14"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
-        <v>45477</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+        <v>45446</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>274</v>
+      </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+      <c r="E59" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="H59" s="14"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
-        <v>45478</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+        <v>45452</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>274</v>
+      </c>
       <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="E60" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="H60" s="14"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
-        <v>45479</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+        <v>45442</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="E61" s="14" t="s">
+        <v>112</v>
+      </c>
       <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
+      <c r="G61" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
@@ -9666,7 +9758,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H311" xr:uid="{1BE47325-3414-4FA0-88F5-D4488CA67E0B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H306">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H302">
       <sortCondition ref="B1:B311"/>
     </sortState>
   </autoFilter>
@@ -9703,10 +9795,10 @@
   <dimension ref="A1:J239"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomRight" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9756,7 +9848,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>45458</v>
+        <v>45438</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="14" t="s">
@@ -9766,10 +9858,10 @@
         <v>182</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -9780,7 +9872,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>45438</v>
+        <v>45458</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="14" t="s">
@@ -9790,10 +9882,10 @@
         <v>182</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -9930,27 +10022,27 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
-        <v>45469</v>
+        <v>45478</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="14" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>429</v>
+        <v>10</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="G9" s="14"/>
+        <v>460</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
@@ -9978,7 +10070,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
-        <v>45455</v>
+        <v>45449</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="14" t="s">
@@ -9988,10 +10080,10 @@
         <v>183</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -10002,7 +10094,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>45467</v>
+        <v>45455</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="14" t="s">
@@ -10026,7 +10118,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
-        <v>45449</v>
+        <v>45467</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="14" t="s">
@@ -10036,10 +10128,10 @@
         <v>183</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>233</v>
+        <v>54</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -10050,31 +10142,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>45429</v>
+        <v>45469</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="14" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>10</v>
+        <v>429</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="14">
-        <v>6</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
-        <v>45464</v>
+        <v>45421</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="14" t="s">
@@ -10087,10 +10179,10 @@
         <v>10</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>131</v>
+        <v>20</v>
+      </c>
+      <c r="G15" s="14">
+        <v>6</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -10098,7 +10190,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>45421</v>
+        <v>45429</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="14" t="s">
@@ -10111,7 +10203,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="G16" s="14">
         <v>6</v>
@@ -10194,31 +10286,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <v>45431</v>
+        <v>45464</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="14" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="14"/>
+        <v>408</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
-        <v>45448</v>
+        <v>45431</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="14" t="s">
@@ -10228,10 +10320,10 @@
         <v>169</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>338</v>
+        <v>101</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>337</v>
+        <v>100</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -10242,31 +10334,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <v>45462</v>
+        <v>45448</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>363</v>
+        <v>169</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="J22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
-        <v>45442</v>
+        <v>45433</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="14" t="s">
@@ -10279,18 +10371,18 @@
         <v>115</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>298</v>
+        <v>114</v>
       </c>
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
-        <v>45433</v>
+        <v>45442</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="14" t="s">
@@ -10303,66 +10395,66 @@
         <v>115</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>113</v>
+        <v>297</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14" t="s">
-        <v>114</v>
+        <v>298</v>
       </c>
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
-        <v>45445</v>
+        <v>45462</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="14" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>171</v>
+        <v>363</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>131</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="I25" s="14" t="s">
+        <v>402</v>
+      </c>
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
-        <v>45461</v>
+        <v>45477</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="14" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>171</v>
+        <v>363</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>131</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="I26" s="14" t="s">
+        <v>456</v>
+      </c>
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
-        <v>45471</v>
+        <v>45445</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="14" t="s">
@@ -10375,10 +10467,10 @@
         <v>10</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>434</v>
+        <v>317</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -10386,173 +10478,173 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
-        <v>45473</v>
+        <v>45461</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>119</v>
+        <v>317</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>367</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
-        <v>45472</v>
+        <v>45471</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="14" t="s">
-        <v>363</v>
+        <v>170</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="F29" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G29" s="14"/>
+        <v>434</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="H29" s="14"/>
-      <c r="I29" s="14" t="s">
-        <v>442</v>
-      </c>
+      <c r="I29" s="14"/>
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
-        <v>45459</v>
+        <v>45473</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="14" t="s">
-        <v>363</v>
+        <v>173</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="14"/>
+        <v>176</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>283</v>
+      </c>
       <c r="F30" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14" t="s">
-        <v>394</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
-        <v>45423</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="18" t="s">
+        <v>45459</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>443</v>
-      </c>
+      <c r="D31" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="14"/>
       <c r="F31" s="14" t="s">
-        <v>34</v>
+        <v>393</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
-        <v>45453</v>
+        <v>45472</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="14" t="s">
         <v>363</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
-        <v>45452</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>172</v>
+        <v>45423</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>10</v>
+        <v>443</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>131</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G33" s="14"/>
       <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="I33" s="14" t="s">
+        <v>402</v>
+      </c>
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
-        <v>45441</v>
+        <v>45453</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="14" t="s">
-        <v>164</v>
+        <v>363</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>10</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="E34" s="14"/>
       <c r="F34" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>131</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="G34" s="14"/>
       <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="I34" s="14" t="s">
+        <v>364</v>
+      </c>
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
-        <v>45432</v>
+        <v>45425</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="14" t="s">
@@ -10565,10 +10657,10 @@
         <v>10</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="G35" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
@@ -10576,7 +10668,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
-        <v>45451</v>
+        <v>45428</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="14" t="s">
@@ -10589,10 +10681,10 @@
         <v>10</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>126</v>
+        <v>83</v>
+      </c>
+      <c r="G36" s="14">
+        <v>6</v>
       </c>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -10600,7 +10692,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
-        <v>45428</v>
+        <v>45432</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="14" t="s">
@@ -10613,10 +10705,10 @@
         <v>10</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G37" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -10624,7 +10716,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
-        <v>45466</v>
+        <v>45435</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="14" t="s">
@@ -10637,7 +10729,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>131</v>
@@ -10648,7 +10740,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
-        <v>45460</v>
+        <v>45441</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="14" t="s">
@@ -10661,7 +10753,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>395</v>
+        <v>286</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>131</v>
@@ -10672,7 +10764,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
-        <v>45425</v>
+        <v>45451</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="14" t="s">
@@ -10685,10 +10777,10 @@
         <v>10</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" s="14">
-        <v>6</v>
+        <v>352</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -10696,7 +10788,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
-        <v>45435</v>
+        <v>45452</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="14" t="s">
@@ -10709,7 +10801,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>130</v>
+        <v>357</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>131</v>
@@ -10720,163 +10812,157 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
-        <v>45444</v>
+        <v>45460</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" s="14">
-        <v>13</v>
+        <v>172</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>311</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
-        <v>45434</v>
+        <v>45466</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="14">
-        <v>13</v>
+        <v>172</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H43" s="14">
-        <v>4</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>283</v>
+        <v>10</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>448</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
-        <v>45465</v>
+        <v>45434</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="14" t="s">
         <v>168</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>283</v>
+        <v>176</v>
+      </c>
+      <c r="E45" s="14">
+        <v>13</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>412</v>
+        <v>119</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>295</v>
+        <v>120</v>
+      </c>
+      <c r="H45" s="14">
+        <v>4</v>
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
-        <v>45436</v>
+        <v>45444</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="14" t="s">
         <v>168</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E46" s="14">
         <v>13</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H46" s="14">
-        <v>4</v>
+        <v>296</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>311</v>
       </c>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
-        <v>45447</v>
+        <v>45474</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="14" t="s">
         <v>168</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E47" s="14">
-        <v>13</v>
+        <v>176</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>331</v>
+        <v>447</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>62</v>
+        <v>296</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>139</v>
+        <v>448</v>
       </c>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
-        <v>45439</v>
+        <v>45427</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="14" t="s">
@@ -10889,20 +10975,20 @@
         <v>13</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>249</v>
+        <v>64</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="H48" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
-        <v>45427</v>
+        <v>45436</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="14" t="s">
@@ -10915,92 +11001,98 @@
         <v>13</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H49" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
-        <v>45443</v>
+        <v>45439</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="E50" s="14">
+        <v>13</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H50" s="14"/>
+        <v>120</v>
+      </c>
+      <c r="H50" s="14">
+        <v>4</v>
+      </c>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
-        <v>45430</v>
+        <v>45447</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="E51" s="14">
+        <v>13</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="14">
-        <v>7</v>
-      </c>
-      <c r="H51" s="14"/>
+        <v>331</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
-        <v>45422</v>
+        <v>45465</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" s="14">
-        <v>6</v>
-      </c>
-      <c r="H52" s="14"/>
+        <v>412</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>295</v>
+      </c>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
-        <v>45456</v>
+        <v>45422</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="14" t="s">
@@ -11013,10 +11105,10 @@
         <v>10</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>131</v>
+        <v>26</v>
+      </c>
+      <c r="G53" s="14">
+        <v>6</v>
       </c>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -11024,23 +11116,23 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
-        <v>45457</v>
+        <v>45430</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>131</v>
+        <v>94</v>
+      </c>
+      <c r="G54" s="14">
+        <v>7</v>
       </c>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
@@ -11048,20 +11140,20 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
-        <v>45468</v>
+        <v>45443</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>126</v>
@@ -11072,23 +11164,23 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
-        <v>45475</v>
+        <v>45456</v>
       </c>
       <c r="B56" s="18"/>
       <c r="C56" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
@@ -11096,20 +11188,20 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
-        <v>45470</v>
+        <v>45479</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>131</v>
@@ -11120,56 +11212,96 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
-        <v>45476</v>
+        <v>45457</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="C58" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
-        <v>45477</v>
+        <v>45468</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+      <c r="C59" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
-        <v>45478</v>
+        <v>45470</v>
       </c>
       <c r="B60" s="18"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="C60" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
-        <v>45479</v>
+        <v>45475</v>
       </c>
       <c r="B61" s="18"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+      <c r="C61" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -13704,10 +13836,10 @@
   <dimension ref="A1:I239"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13752,20 +13884,20 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>45445</v>
-      </c>
-      <c r="B2" s="14" t="s">
+        <v>45423</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>318</v>
+        <v>35</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>319</v>
+        <v>74</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14" t="s">
@@ -13775,24 +13907,24 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>45458</v>
-      </c>
-      <c r="B3" s="14" t="s">
+        <v>45425</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="18" t="s">
         <v>180</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>390</v>
+        <v>48</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>391</v>
+        <v>301</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I3" s="14"/>
     </row>
@@ -13844,7 +13976,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>45456</v>
+        <v>45439</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>179</v>
@@ -13854,33 +13986,33 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>378</v>
+        <v>250</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
-        <v>379</v>
+        <v>66</v>
       </c>
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <v>45423</v>
-      </c>
-      <c r="B7" s="18" t="s">
+        <v>45445</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
@@ -13890,7 +14022,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>45439</v>
+        <v>45456</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>179</v>
@@ -13900,43 +14032,43 @@
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>250</v>
+        <v>378</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
-        <v>45425</v>
-      </c>
-      <c r="B9" s="18" t="s">
+        <v>45458</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>180</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>48</v>
+        <v>390</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>45467</v>
+        <v>45465</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>179</v>
@@ -13946,20 +14078,20 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>48</v>
+        <v>413</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
-        <v>45469</v>
+        <v>45467</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>179</v>
@@ -13969,20 +14101,20 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>406</v>
+        <v>48</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>398</v>
+        <v>301</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>45472</v>
+        <v>45469</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>179</v>
@@ -13999,13 +14131,13 @@
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
-        <v>424</v>
+        <v>133</v>
       </c>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
-        <v>45465</v>
+        <v>45472</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>179</v>
@@ -14015,43 +14147,43 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>45434</v>
-      </c>
-      <c r="B14" s="14" t="s">
+        <v>45426</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="14">
-        <v>30</v>
+      <c r="D14" s="14" t="s">
+        <v>385</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14" t="s">
-        <v>124</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
-        <v>45459</v>
+        <v>45429</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>181</v>
@@ -14059,22 +14191,22 @@
       <c r="C15" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>350</v>
+      <c r="D15" s="14">
+        <v>28</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>45441</v>
+        <v>45434</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>181</v>
@@ -14082,22 +14214,22 @@
       <c r="C16" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>289</v>
+      <c r="D16" s="14">
+        <v>30</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>287</v>
+        <v>123</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14" t="s">
-        <v>288</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
-        <v>45471</v>
+        <v>45441</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>181</v>
@@ -14106,21 +14238,21 @@
         <v>178</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14" t="s">
-        <v>436</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
-        <v>45429</v>
+        <v>45455</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>181</v>
@@ -14128,17 +14260,17 @@
       <c r="C18" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D18" s="14">
-        <v>28</v>
+      <c r="D18" s="14" t="s">
+        <v>289</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>88</v>
+        <v>372</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14" t="s">
-        <v>90</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -14166,30 +14298,30 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <v>45426</v>
-      </c>
-      <c r="B20" s="18" t="s">
+        <v>45459</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="14" t="s">
         <v>178</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14" t="s">
-        <v>384</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
-        <v>45474</v>
+        <v>45471</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>181</v>
@@ -14198,21 +14330,21 @@
         <v>178</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>385</v>
+        <v>290</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>122</v>
+        <v>435</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <v>45455</v>
+        <v>45474</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>181</v>
@@ -14221,90 +14353,90 @@
         <v>178</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>372</v>
+        <v>122</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
-        <v>45421</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="18" t="s">
+        <v>45476</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>350</v>
+      </c>
       <c r="E23" s="14" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="14" t="s">
-        <v>409</v>
-      </c>
+      <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>69</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
-        <v>45464</v>
+        <v>45478</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D24" s="14"/>
+        <v>178</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>385</v>
+      </c>
       <c r="E24" s="14" t="s">
-        <v>21</v>
+        <v>461</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="14" t="s">
-        <v>409</v>
-      </c>
+      <c r="H24" s="14"/>
       <c r="I24" s="14" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
-        <v>45447</v>
-      </c>
-      <c r="B25" s="14" t="s">
+        <v>45421</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="18" t="s">
         <v>181</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14" t="s">
-        <v>332</v>
+        <v>21</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14" t="s">
-        <v>333</v>
+        <v>409</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>334</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
-        <v>45451</v>
+        <v>45427</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>180</v>
@@ -14314,20 +14446,20 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>332</v>
+        <v>65</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14" t="s">
-        <v>333</v>
+        <v>66</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>353</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
-        <v>45427</v>
+        <v>45430</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>180</v>
@@ -14337,20 +14469,20 @@
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
-        <v>45453</v>
+        <v>45435</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>180</v>
@@ -14360,15 +14492,15 @@
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>365</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -14396,7 +14528,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
-        <v>45449</v>
+        <v>45444</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>180</v>
@@ -14406,20 +14538,20 @@
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
-        <v>149</v>
+        <v>312</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14" t="s">
-        <v>116</v>
+        <v>313</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
-        <v>45462</v>
+        <v>45447</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>180</v>
@@ -14429,20 +14561,20 @@
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
-        <v>149</v>
+        <v>332</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14" t="s">
-        <v>116</v>
+        <v>333</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>69</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
-        <v>45430</v>
+        <v>45449</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>180</v>
@@ -14452,20 +14584,20 @@
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>96</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
-        <v>45444</v>
+        <v>45451</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>180</v>
@@ -14475,20 +14607,20 @@
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
-        <v>45435</v>
+        <v>45453</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>180</v>
@@ -14498,89 +14630,89 @@
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>134</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
-        <v>45420</v>
+        <v>45462</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>68</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="F35" s="14"/>
-      <c r="G35" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
-        <v>45448</v>
+        <v>45464</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>68</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F36" s="14"/>
-      <c r="G36" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
-        <v>45452</v>
+        <v>45479</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>68</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>10</v>
+        <v>466</v>
       </c>
       <c r="F37" s="14"/>
-      <c r="G37" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
-        <v>45432</v>
+        <v>45420</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>178</v>
@@ -14589,21 +14721,21 @@
         <v>177</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
-        <v>45466</v>
+        <v>45422</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>178</v>
@@ -14612,14 +14744,14 @@
         <v>177</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>419</v>
+        <v>72</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14" t="s">
-        <v>420</v>
+        <v>71</v>
       </c>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
@@ -14649,7 +14781,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
-        <v>45446</v>
+        <v>45428</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>178</v>
@@ -14658,21 +14790,21 @@
         <v>177</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14" t="s">
-        <v>302</v>
+        <v>71</v>
       </c>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
-        <v>45468</v>
+        <v>45432</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>178</v>
@@ -14681,21 +14813,21 @@
         <v>177</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>325</v>
+        <v>108</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
-        <v>45470</v>
+        <v>45436</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>178</v>
@@ -14704,21 +14836,21 @@
         <v>177</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>325</v>
+        <v>141</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14" t="s">
-        <v>279</v>
+        <v>142</v>
       </c>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
-        <v>45422</v>
+        <v>45438</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>178</v>
@@ -14727,10 +14859,10 @@
         <v>177</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14" t="s">
@@ -14741,7 +14873,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
-        <v>45428</v>
+        <v>45440</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>178</v>
@@ -14750,21 +14882,21 @@
         <v>177</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>72</v>
+        <v>278</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14" t="s">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
-        <v>45436</v>
+        <v>45443</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>178</v>
@@ -14773,21 +14905,21 @@
         <v>177</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>141</v>
+        <v>306</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>49</v>
+        <v>307</v>
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
-        <v>45440</v>
+        <v>45446</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>178</v>
@@ -14796,21 +14928,21 @@
         <v>177</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="14" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
-        <v>45461</v>
+        <v>45448</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>178</v>
@@ -14819,21 +14951,21 @@
         <v>177</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>278</v>
+        <v>68</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>277</v>
+        <v>10</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14" t="s">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
-        <v>45443</v>
+        <v>45452</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>178</v>
@@ -14842,21 +14974,21 @@
         <v>177</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>306</v>
+        <v>68</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>307</v>
+        <v>10</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
-        <v>45438</v>
+        <v>45461</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>178</v>
@@ -14865,81 +14997,81 @@
         <v>177</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
-        <v>45463</v>
+        <v>45466</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="14"/>
+      <c r="D51" s="14" t="s">
+        <v>419</v>
+      </c>
       <c r="E51" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>371</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F51" s="14"/>
       <c r="G51" s="14" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
-        <v>45460</v>
+        <v>45468</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="14" t="s">
+        <v>325</v>
+      </c>
       <c r="E52" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>398</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F52" s="14"/>
       <c r="G52" s="14" t="s">
-        <v>397</v>
+        <v>67</v>
       </c>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
-        <v>45454</v>
+        <v>45470</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="14" t="s">
+        <v>325</v>
+      </c>
       <c r="E53" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>371</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F53" s="14"/>
       <c r="G53" s="14" t="s">
         <v>279</v>
       </c>
@@ -14971,7 +15103,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
-        <v>45473</v>
+        <v>45450</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>177</v>
@@ -14981,20 +15113,20 @@
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>446</v>
+        <v>349</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
-        <v>45475</v>
+        <v>45454</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>177</v>
@@ -15004,20 +15136,20 @@
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14" t="s">
-        <v>299</v>
+        <v>370</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>371</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
-        <v>45450</v>
+        <v>45460</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>177</v>
@@ -15027,66 +15159,106 @@
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="14" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>76</v>
+        <v>397</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
-        <v>45476</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+        <v>45463</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
+      <c r="E58" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>404</v>
+      </c>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
-        <v>45477</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+        <v>45473</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
+      <c r="E59" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>302</v>
+      </c>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
-        <v>45478</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+        <v>45475</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="E60" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>302</v>
+      </c>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
-        <v>45479</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+        <v>45477</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+      <c r="E61" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>279</v>
+      </c>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
@@ -17442,10 +17614,10 @@
   <dimension ref="A1:I239"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17532,7 +17704,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>45456</v>
+        <v>45425</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>186</v>
@@ -17544,15 +17716,15 @@
         <v>24</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>290</v>
+        <v>49</v>
+      </c>
+      <c r="I4" s="14">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
-        <v>45442</v>
+        <v>45428</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>186</v>
@@ -17561,13 +17733,13 @@
         <v>185</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>150</v>
+        <v>84</v>
+      </c>
+      <c r="I5" s="14">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -17592,7 +17764,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <v>45470</v>
+        <v>45442</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>186</v>
@@ -17604,15 +17776,15 @@
         <v>24</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="14">
-        <v>28</v>
+        <v>75</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <v>45428</v>
+        <v>45448</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>186</v>
@@ -17624,10 +17796,10 @@
         <v>36</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="14">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -17652,7 +17824,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>45462</v>
+        <v>45456</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>186</v>
@@ -17664,15 +17836,15 @@
         <v>24</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
-        <v>45425</v>
+        <v>45462</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>186</v>
@@ -17684,15 +17856,15 @@
         <v>24</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="14">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>45448</v>
+        <v>45470</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>186</v>
@@ -17701,18 +17873,18 @@
         <v>185</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>289</v>
+        <v>125</v>
+      </c>
+      <c r="I12" s="14">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
-        <v>45465</v>
+        <v>45449</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>271</v>
@@ -17720,22 +17892,19 @@
       <c r="C13" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>417</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>415</v>
+        <v>342</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>416</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>45449</v>
+        <v>45465</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>271</v>
@@ -17743,19 +17912,22 @@
       <c r="C14" s="14" t="s">
         <v>248</v>
       </c>
+      <c r="D14" s="14" t="s">
+        <v>417</v>
+      </c>
       <c r="E14" s="14" t="s">
-        <v>341</v>
+        <v>21</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>342</v>
+        <v>415</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
-        <v>45440</v>
+        <v>45429</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>191</v>
@@ -17764,18 +17936,18 @@
         <v>189</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>144</v>
+        <v>91</v>
+      </c>
+      <c r="G15" s="14">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>45467</v>
+        <v>45433</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>191</v>
@@ -17784,18 +17956,18 @@
         <v>189</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>144</v>
+        <v>117</v>
+      </c>
+      <c r="G16" s="14">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
-        <v>45455</v>
+        <v>45440</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>191</v>
@@ -17804,10 +17976,10 @@
         <v>189</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>144</v>
@@ -17815,7 +17987,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
-        <v>45451</v>
+        <v>45445</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>191</v>
@@ -17824,10 +17996,10 @@
         <v>189</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>144</v>
@@ -17835,7 +18007,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
-        <v>45433</v>
+        <v>45451</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>191</v>
@@ -17844,18 +18016,18 @@
         <v>189</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="14">
-        <v>19</v>
+        <v>354</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <v>45429</v>
+        <v>45455</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>191</v>
@@ -17864,18 +18036,18 @@
         <v>189</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="14">
-        <v>19</v>
+        <v>237</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
-        <v>45445</v>
+        <v>45457</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>191</v>
@@ -17895,7 +18067,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <v>45457</v>
+        <v>45467</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>191</v>
@@ -17904,10 +18076,10 @@
         <v>189</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>320</v>
+        <v>143</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>144</v>
@@ -18003,30 +18175,24 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
-        <v>45469</v>
+        <v>45479</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>144</v>
+        <v>251</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
-        <v>45452</v>
+        <v>45420</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>184</v>
@@ -18034,19 +18200,22 @@
       <c r="C29" s="14" t="s">
         <v>271</v>
       </c>
+      <c r="D29" s="14" t="s">
+        <v>294</v>
+      </c>
       <c r="E29" s="14" t="s">
-        <v>359</v>
+        <v>15</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>240</v>
+      <c r="G29" s="14">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
-        <v>45435</v>
+        <v>45422</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>184</v>
@@ -18054,22 +18223,22 @@
       <c r="C30" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>137</v>
-      </c>
       <c r="E30" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>136</v>
+        <v>28</v>
+      </c>
+      <c r="F30" s="14">
+        <v>9</v>
+      </c>
+      <c r="G30" s="14">
+        <v>18</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
-        <v>45420</v>
+        <v>45430</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>184</v>
@@ -18077,22 +18246,19 @@
       <c r="C31" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>294</v>
-      </c>
       <c r="E31" s="14" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="G31" s="14">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
-        <v>45422</v>
+        <v>45432</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>184</v>
@@ -18101,13 +18267,10 @@
         <v>271</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="14">
-        <v>9</v>
-      </c>
-      <c r="G32" s="14">
-        <v>18</v>
+        <v>110</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>99</v>
@@ -18115,7 +18278,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>184</v>
@@ -18123,19 +18286,22 @@
       <c r="C33" s="14" t="s">
         <v>271</v>
       </c>
+      <c r="D33" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="E33" s="14" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>99</v>
+        <v>127</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
-        <v>45430</v>
+        <v>45452</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>184</v>
@@ -18144,30 +18310,33 @@
         <v>271</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>97</v>
+        <v>359</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
-        <v>45446</v>
+        <v>45469</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>327</v>
+        <v>131</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>326</v>
+        <v>430</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>144</v>
@@ -18175,24 +18344,27 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
-        <v>45458</v>
+        <v>45476</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>58</v>
+        <v>453</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
-        <v>45474</v>
+        <v>45431</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>188</v>
@@ -18201,15 +18373,15 @@
         <v>191</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>366</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
-        <v>45431</v>
+        <v>45446</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>188</v>
@@ -18218,75 +18390,69 @@
         <v>191</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>105</v>
+        <v>327</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>43</v>
+        <v>326</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
-        <v>45444</v>
+        <v>45458</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
-        <v>45436</v>
+        <v>45474</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>144</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
-        <v>45438</v>
+        <v>45477</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>144</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
-        <v>45459</v>
+        <v>45426</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>189</v>
@@ -18295,18 +18461,15 @@
         <v>190</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>355</v>
+        <v>59</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
-        <v>45471</v>
+        <v>45436</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>189</v>
@@ -18315,15 +18478,18 @@
         <v>190</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>437</v>
+        <v>143</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
-        <v>45426</v>
+        <v>45438</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>189</v>
@@ -18332,15 +18498,18 @@
         <v>190</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>58</v>
+        <v>237</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
-        <v>45466</v>
+        <v>45444</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>189</v>
@@ -18349,10 +18518,13 @@
         <v>190</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>59</v>
+        <v>281</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>58</v>
+        <v>280</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -18374,67 +18546,61 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
-        <v>45424</v>
+        <v>45459</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" s="14">
-        <v>19</v>
+        <v>354</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
-        <v>45447</v>
+        <v>45466</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="14">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
-        <v>45460</v>
+        <v>45471</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="14">
-        <v>19</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
-        <v>45464</v>
+        <v>45424</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>187</v>
@@ -18443,7 +18609,7 @@
         <v>188</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>43</v>
@@ -18454,87 +18620,84 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
-        <v>45441</v>
+        <v>45447</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>290</v>
+        <v>43</v>
+      </c>
+      <c r="G51" s="14">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
-        <v>45468</v>
+        <v>45460</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>290</v>
+        <v>43</v>
+      </c>
+      <c r="G52" s="14">
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
-        <v>45427</v>
+        <v>45464</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I53" s="14">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="G53" s="14">
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
-        <v>45437</v>
+        <v>45478</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
-        <v>45461</v>
+        <v>45427</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>185</v>
@@ -18548,13 +18711,13 @@
       <c r="E55" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I55" s="14" t="s">
-        <v>150</v>
+      <c r="I55" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
-        <v>45472</v>
+        <v>45437</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>185</v>
@@ -18563,18 +18726,18 @@
         <v>187</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I56" s="14">
-        <v>27</v>
+        <v>75</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
-        <v>45454</v>
+        <v>45441</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>185</v>
@@ -18586,30 +18749,90 @@
         <v>36</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
-        <v>45476</v>
+        <v>45454</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
-        <v>45477</v>
+        <v>45461</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
-        <v>45478</v>
+        <v>45468</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
-        <v>45479</v>
+        <v>45472</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61" s="14">
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -19539,11 +19762,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6D0FBF-5EEC-41C8-BFCB-0B0558307FD9}">
   <dimension ref="A1:L237"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19599,7 +19822,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
-        <v>45447</v>
+        <v>45441</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>193</v>
@@ -19609,15 +19832,17 @@
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="14" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="H2" s="14" t="s">
-        <v>293</v>
+        <v>126</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -19625,7 +19850,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
-        <v>45441</v>
+        <v>45447</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>193</v>
@@ -19635,17 +19860,15 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
-        <v>139</v>
-      </c>
+      <c r="G3" s="14"/>
       <c r="H3" s="14" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -19653,7 +19876,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
-        <v>45463</v>
+        <v>45453</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>193</v>
@@ -19663,15 +19886,19 @@
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+        <v>138</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="H4" s="14" t="s">
         <v>126</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -19705,7 +19932,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
-        <v>45465</v>
+        <v>45463</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>193</v>
@@ -19715,19 +19942,15 @@
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>139</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="14" t="s">
         <v>126</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -19735,7 +19958,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <v>45453</v>
+        <v>45465</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>193</v>
@@ -19745,13 +19968,13 @@
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>138</v>
+        <v>418</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>131</v>
+        <v>294</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>126</v>
@@ -19793,59 +20016,61 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
-        <v>45433</v>
+        <v>45477</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>239</v>
+        <v>459</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
-        <v>45457</v>
-      </c>
-      <c r="B10" s="14" t="s">
+        <v>45425</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="18" t="s">
         <v>194</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>386</v>
+        <v>21</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14" t="s">
-        <v>387</v>
-      </c>
+      <c r="J10" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="14"/>
       <c r="L10" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
-        <v>45462</v>
+        <v>45427</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>192</v>
@@ -19855,23 +20080,23 @@
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>386</v>
+        <v>242</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14" t="s">
-        <v>387</v>
-      </c>
+      <c r="J11" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="K11" s="14"/>
       <c r="L11" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
-        <v>45448</v>
+        <v>45430</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>192</v>
@@ -19881,17 +20106,17 @@
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>70</v>
@@ -19899,7 +20124,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
-        <v>45430</v>
+        <v>45433</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>192</v>
@@ -19909,17 +20134,15 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="14" t="s">
-        <v>241</v>
-      </c>
+      <c r="J13" s="14"/>
       <c r="K13" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>70</v>
@@ -19927,7 +20150,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
-        <v>45451</v>
+        <v>45443</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>192</v>
@@ -19937,25 +20160,23 @@
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>356</v>
+        <v>21</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>284</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="K14" s="14"/>
       <c r="L14" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
-        <v>45454</v>
+        <v>45446</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>192</v>
@@ -19965,7 +20186,7 @@
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -19975,7 +20196,7 @@
         <v>241</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>70</v>
@@ -19983,7 +20204,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
-        <v>45446</v>
+        <v>45448</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>192</v>
@@ -19993,17 +20214,17 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>70</v>
@@ -20011,7 +20232,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
-        <v>45470</v>
+        <v>45451</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>192</v>
@@ -20021,7 +20242,7 @@
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -20031,7 +20252,7 @@
         <v>241</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>70</v>
@@ -20039,7 +20260,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
-        <v>45464</v>
+        <v>45454</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>192</v>
@@ -20049,14 +20270,14 @@
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14" t="s">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>284</v>
@@ -20067,7 +20288,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
-        <v>45427</v>
+        <v>45457</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>192</v>
@@ -20077,49 +20298,49 @@
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>242</v>
+        <v>386</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
-      <c r="J19" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="K19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14" t="s">
+        <v>387</v>
+      </c>
       <c r="L19" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
-        <v>45425</v>
-      </c>
-      <c r="B20" s="18" t="s">
+        <v>45462</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="14" t="s">
         <v>194</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>21</v>
+        <v>386</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14" t="s">
+        <v>387</v>
+      </c>
       <c r="L20" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
-        <v>45443</v>
+        <v>45464</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>192</v>
@@ -20129,23 +20350,25 @@
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14" t="s">
-        <v>21</v>
+        <v>411</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" s="14"/>
+        <v>129</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>284</v>
+      </c>
       <c r="L21" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
-        <v>45475</v>
+        <v>45470</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>192</v>
@@ -20155,14 +20378,14 @@
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14" t="s">
-        <v>427</v>
+        <v>328</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>329</v>
@@ -20173,40 +20396,40 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
-        <v>45424</v>
-      </c>
-      <c r="B23" s="18" t="s">
+        <v>45475</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>194</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>195</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="14">
-        <v>1</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>250</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="14">
-        <v>5</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
-        <v>45432</v>
-      </c>
-      <c r="B24" s="14" t="s">
+        <v>45424</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="18" t="s">
         <v>195</v>
       </c>
       <c r="D24" s="14"/>
@@ -20214,16 +20437,14 @@
         <v>45</v>
       </c>
       <c r="F24" s="14">
-        <v>6</v>
-      </c>
-      <c r="G24" s="14">
-        <v>3</v>
-      </c>
-      <c r="H24" s="14">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="14"/>
       <c r="I24" s="14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -20231,7 +20452,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
-        <v>45437</v>
+        <v>45432</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>194</v>
@@ -20243,15 +20464,17 @@
       <c r="E25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14" t="s">
-        <v>93</v>
+      <c r="F25" s="14">
+        <v>6</v>
+      </c>
+      <c r="G25" s="14">
+        <v>3</v>
+      </c>
+      <c r="H25" s="14">
+        <v>8</v>
+      </c>
+      <c r="I25" s="14">
+        <v>9</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -20259,7 +20482,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
-        <v>45442</v>
+        <v>45437</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>194</v>
@@ -20272,16 +20495,14 @@
         <v>45</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>294</v>
+        <v>131</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
-        <v>303</v>
+        <v>93</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -20289,7 +20510,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
-        <v>45456</v>
+        <v>45442</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>194</v>
@@ -20301,13 +20522,17 @@
       <c r="E27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>294</v>
+      </c>
       <c r="G27" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="I27" s="14" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
@@ -20315,7 +20540,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
-        <v>45459</v>
+        <v>45456</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>194</v>
@@ -20329,13 +20554,11 @@
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>127</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="H28" s="14"/>
       <c r="I28" s="14" t="s">
-        <v>292</v>
+        <v>380</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -20343,7 +20566,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
-        <v>45461</v>
+        <v>45459</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>194</v>
@@ -20355,15 +20578,15 @@
       <c r="E29" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>131</v>
-      </c>
+      <c r="F29" s="14"/>
       <c r="G29" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H29" s="14"/>
+        <v>139</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="I29" s="14" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -20371,27 +20594,27 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
-        <v>45429</v>
+        <v>45461</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="14">
-        <v>1</v>
-      </c>
-      <c r="G30" s="14">
-        <v>2</v>
+      <c r="F30" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>147</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
@@ -20399,35 +20622,35 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
-        <v>45439</v>
+        <v>45478</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>294</v>
+      </c>
       <c r="G31" s="14" t="s">
         <v>139</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>93</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
-        <v>45445</v>
+        <v>45429</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>195</v>
@@ -20439,15 +20662,15 @@
       <c r="E32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14">
+        <v>2</v>
+      </c>
+      <c r="H32" s="14"/>
       <c r="I32" s="14" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
@@ -20455,7 +20678,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
-        <v>45467</v>
+        <v>45439</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>195</v>
@@ -20467,15 +20690,15 @@
       <c r="E33" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>294</v>
-      </c>
+      <c r="F33" s="14"/>
       <c r="G33" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" s="14"/>
+        <v>139</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="I33" s="14" t="s">
-        <v>425</v>
+        <v>93</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -20483,27 +20706,27 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
-        <v>45469</v>
+        <v>45445</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>197</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>193</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14" t="s">
-        <v>250</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="14"/>
       <c r="H34" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>367</v>
+        <v>86</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -20511,27 +20734,27 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
-        <v>45458</v>
+        <v>45467</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>197</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>193</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14" t="s">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14" t="s">
-        <v>293</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="14"/>
       <c r="I35" s="14" t="s">
-        <v>316</v>
+        <v>425</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -20539,7 +20762,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
-        <v>45428</v>
+        <v>45423</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>197</v>
@@ -20549,15 +20772,15 @@
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="F36" s="14">
+        <v>6</v>
+      </c>
       <c r="G36" s="14">
         <v>2</v>
       </c>
-      <c r="H36" s="14">
-        <v>7</v>
-      </c>
+      <c r="H36" s="14"/>
       <c r="I36" s="14" t="s">
         <v>86</v>
       </c>
@@ -20567,35 +20790,35 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
-        <v>45444</v>
-      </c>
-      <c r="B37" s="14" t="s">
+        <v>45426</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="18" t="s">
         <v>193</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14" t="s">
-        <v>316</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1</v>
+      </c>
+      <c r="G37" s="14">
+        <v>3</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
-        <v>45466</v>
+        <v>45428</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>197</v>
@@ -20605,15 +20828,17 @@
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>315</v>
+        <v>85</v>
       </c>
       <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14" t="s">
-        <v>127</v>
+      <c r="G38" s="14">
+        <v>2</v>
+      </c>
+      <c r="H38" s="14">
+        <v>7</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>421</v>
+        <v>86</v>
       </c>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -20621,35 +20846,35 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
-        <v>45426</v>
-      </c>
-      <c r="B39" s="18" t="s">
+        <v>45435</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="14" t="s">
         <v>193</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="14">
-        <v>1</v>
-      </c>
-      <c r="G39" s="14">
-        <v>3</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="I39" s="14"/>
+        <v>138</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
-        <v>45472</v>
+        <v>45444</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>197</v>
@@ -20659,17 +20884,17 @@
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14" t="s">
-        <v>444</v>
+        <v>315</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="G40" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="14"/>
       <c r="I40" s="14" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
@@ -20705,7 +20930,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
-        <v>45423</v>
+        <v>45458</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>197</v>
@@ -20715,17 +20940,17 @@
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="14">
-        <v>6</v>
-      </c>
-      <c r="G42" s="14">
-        <v>2</v>
-      </c>
-      <c r="H42" s="14"/>
+        <v>392</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14" t="s">
+        <v>293</v>
+      </c>
       <c r="I42" s="14" t="s">
-        <v>86</v>
+        <v>316</v>
       </c>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
@@ -20733,7 +20958,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
-        <v>45435</v>
+        <v>45466</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>197</v>
@@ -20743,17 +20968,15 @@
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43" s="14"/>
+        <v>315</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="I43" s="14" t="s">
-        <v>93</v>
+        <v>421</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
@@ -20761,59 +20984,63 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
-        <v>45422</v>
+        <v>45469</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>239</v>
+        <v>431</v>
       </c>
       <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="G44" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>367</v>
+      </c>
       <c r="J44" s="14"/>
-      <c r="K44" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
-        <v>45434</v>
+        <v>45472</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F45" s="14"/>
+        <v>444</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>137</v>
+      </c>
       <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
+      <c r="H45" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>303</v>
+      </c>
       <c r="J45" s="14"/>
-      <c r="K45" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
-        <v>45449</v>
+        <v>45422</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>196</v>
@@ -20839,7 +21066,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
-        <v>45473</v>
+        <v>45431</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>196</v>
@@ -20849,15 +21076,17 @@
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
-        <v>386</v>
+        <v>245</v>
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
+      <c r="J47" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="K47" s="14" t="s">
-        <v>387</v>
+        <v>244</v>
       </c>
       <c r="L47" s="14" t="s">
         <v>70</v>
@@ -20865,7 +21094,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
-        <v>45460</v>
+        <v>45434</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>196</v>
@@ -20875,17 +21104,15 @@
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
-        <v>399</v>
+        <v>239</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
-      <c r="J48" s="14" t="s">
-        <v>283</v>
-      </c>
+      <c r="J48" s="14"/>
       <c r="K48" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L48" s="14" t="s">
         <v>70</v>
@@ -20893,7 +21120,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
-        <v>45440</v>
+        <v>45436</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>196</v>
@@ -20903,25 +21130,23 @@
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="14" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>284</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="K49" s="14"/>
       <c r="L49" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
-        <v>45452</v>
+        <v>45438</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>196</v>
@@ -20931,17 +21156,17 @@
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="14" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14" t="s">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="L50" s="14" t="s">
         <v>70</v>
@@ -20949,7 +21174,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
-        <v>45468</v>
+        <v>45440</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>196</v>
@@ -20959,7 +21184,7 @@
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14" t="s">
-        <v>427</v>
+        <v>282</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
@@ -20969,7 +21194,7 @@
         <v>283</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="L51" s="14" t="s">
         <v>70</v>
@@ -20977,7 +21202,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
-        <v>45431</v>
+        <v>45449</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>196</v>
@@ -20987,17 +21212,15 @@
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
-      <c r="J52" s="14" t="s">
-        <v>241</v>
-      </c>
+      <c r="J52" s="14"/>
       <c r="K52" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L52" s="14" t="s">
         <v>70</v>
@@ -21005,7 +21228,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
-        <v>45438</v>
+        <v>45452</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>196</v>
@@ -21015,17 +21238,17 @@
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="14" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14" t="s">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="L53" s="14" t="s">
         <v>70</v>
@@ -21033,7 +21256,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
-        <v>45471</v>
+        <v>45460</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>196</v>
@@ -21043,17 +21266,17 @@
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14" t="s">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="L54" s="14" t="s">
         <v>70</v>
@@ -21061,7 +21284,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
-        <v>45436</v>
+        <v>45468</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>196</v>
@@ -21071,83 +21294,131 @@
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="14" t="s">
-        <v>242</v>
+        <v>427</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="K55" s="14"/>
+        <v>283</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>329</v>
+      </c>
       <c r="L55" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
-        <v>45476</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+        <v>45471</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="E56" s="14" t="s">
+        <v>411</v>
+      </c>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
+      <c r="J56" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K56" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
-        <v>45477</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
+        <v>45473</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="E57" s="14" t="s">
+        <v>386</v>
+      </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
+      <c r="K57" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
-        <v>45478</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+        <v>45476</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+      <c r="E58" s="14" t="s">
+        <v>246</v>
+      </c>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
+      <c r="J58" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>45479</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>192</v>
+      </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
+      <c r="E59" s="14" t="s">
+        <v>246</v>
+      </c>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
+      <c r="J59" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
